--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_4_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_4_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>5.529727786779404e-10</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>5.529727786779404e-10</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55062.78362918754</v>
+        <v>3850882.397597505</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55062.78362918754</v>
+        <v>3850882.397597505</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494641952.049322</v>
+        <v>57491451.42586766</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13447.23191734399</v>
+        <v>1295843.64170149</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26501.79341267455</v>
+        <v>2523736.256025769</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39556.35490800507</v>
+        <v>3751628.87035005</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55192.50601559997</v>
+        <v>4777863.466734617</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69608.58308918262</v>
+        <v>5931982.608052802</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84024.66016276527</v>
+        <v>7086101.749370983</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98440.73723634792</v>
+        <v>8240220.890689162</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>112856.8143099306</v>
+        <v>9394340.03200734</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128492.9654175255</v>
+        <v>10420574.6283919</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>142922.680415586</v>
+        <v>11573612.60280887</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157338.7574891688</v>
+        <v>12727731.74412705</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>171754.8345627515</v>
+        <v>13881850.88544524</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>186170.9116363342</v>
+        <v>15035970.02676343</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>200600.6266343947</v>
+        <v>16189008.00118042</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>218040.7900087225</v>
+        <v>16984496.10717837</v>
       </c>
     </row>
   </sheetData>
